--- a/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
+++ b/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt52png\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt52png\Documents\GitHub\P_Web295\frontend\Journal_de_Travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D2F0C0-3981-4FCB-AE61-EA3C659C19D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70A34A-2666-4CDA-AFF5-D6E7280B84A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>Maquette figma du frontend</t>
+  </si>
+  <si>
+    <t>Commencement de la page de recherche avec VueJs</t>
+  </si>
+  <si>
+    <t>finition de la page de recherche (juste du menu deroulant qui fait une requette quand on choisi quelque chose)</t>
+  </si>
+  <si>
+    <t>ajout d'une page de connexion pour se connecter et recevoir un jeton JWT</t>
+  </si>
+  <si>
+    <t>changement du backend pour que les jetons JWT soient envoyé dans les cookies et pas dans le headers</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1076,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1995,7 +2007,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2060,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 1 heurs 30 minutes</v>
+        <v>0 jours 4 heurs 30 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2063,15 +2075,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2155,15 +2167,23 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="str">
+      <c r="A9" s="16">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="50"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="50">
+        <v>45776</v>
+      </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="52">
+        <v>45</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="56"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -2175,16 +2195,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="46"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="46">
+        <v>45777</v>
+      </c>
       <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="48">
+        <v>45</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="55"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -2197,15 +2225,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="str">
+      <c r="A11" s="16">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="50">
+        <v>45777</v>
+      </c>
+      <c r="C11" s="51">
+        <v>1</v>
+      </c>
       <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="56"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2217,16 +2253,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="46"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="46">
+        <v>45777</v>
+      </c>
       <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="48">
+        <v>30</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="55"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -8619,11 +8663,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8631,7 +8675,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8748,7 +8792,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8762,6 +8806,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -8984,27 +9048,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9021,23 +9084,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
+++ b/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt52png\Documents\GitHub\P_Web295\frontend\Journal_de_Travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70A34A-2666-4CDA-AFF5-D6E7280B84A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2999400-8D3B-4898-815B-90A56EAFDE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -146,6 +146,21 @@
   </si>
   <si>
     <t>changement du backend pour que les jetons JWT soient envoyé dans les cookies et pas dans le headers</t>
+  </si>
+  <si>
+    <t>Fin de la page de connexion</t>
+  </si>
+  <si>
+    <t>Css de la page de connexion</t>
+  </si>
+  <si>
+    <t>mise en place du backend plus page d'inscription</t>
+  </si>
+  <si>
+    <t>Css de la page d'inscription</t>
+  </si>
+  <si>
+    <t>ajustement du header et des bouton + css</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1091,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>0.35416666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2007,7 +2022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2075,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 4 heurs 30 minutes</v>
+        <v>0 jours 10 heurs 0 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2075,15 +2090,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2283,15 +2298,25 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="str">
+      <c r="A13" s="16">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="36"/>
+        <v>19</v>
+      </c>
+      <c r="B13" s="50">
+        <v>45783</v>
+      </c>
+      <c r="C13" s="51">
+        <v>1</v>
+      </c>
+      <c r="D13" s="52">
+        <v>30</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="56"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2304,15 +2329,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="B14" s="46">
+        <v>45783</v>
+      </c>
+      <c r="C14" s="47">
+        <v>1</v>
+      </c>
       <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="55"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -2325,15 +2358,25 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="str">
+      <c r="A15" s="16">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="36"/>
+        <v>19</v>
+      </c>
+      <c r="B15" s="50">
+        <v>45784</v>
+      </c>
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="52">
+        <v>30</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="56"/>
       <c r="M15" t="s">
         <v>22</v>
@@ -2346,30 +2389,46 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="46">
+        <v>45784</v>
+      </c>
       <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="48">
+        <v>30</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="55"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="str">
+      <c r="A17" s="16">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="50">
+        <v>45784</v>
+      </c>
+      <c r="C17" s="51">
+        <v>1</v>
+      </c>
       <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="56"/>
       <c r="O17">
         <v>45</v>
@@ -8663,11 +8722,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8675,7 +8734,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.125</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8792,7 +8851,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.1875</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8815,17 +8874,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9048,6 +9096,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9057,17 +9116,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9084,4 +9132,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
+++ b/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt52png\Documents\GitHub\P_Web295\frontend\Journal_de_Travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2999400-8D3B-4898-815B-90A56EAFDE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A68364-BAAC-4262-AF24-FB99768A2699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>ajustement du header et des bouton + css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de la page de création de compte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création du service de post d'un livre + debug </t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1097,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35416666666666669</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -2022,7 +2028,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2075,7 +2081,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 0 minutes</v>
+        <v>0 jours 13 heurs 45 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2090,15 +2096,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>600</v>
+        <v>825</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2435,45 +2441,71 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="B18" s="46">
+        <v>45790</v>
+      </c>
+      <c r="C18" s="47">
+        <v>1</v>
+      </c>
+      <c r="D18" s="48">
+        <v>30</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="55"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
+      <c r="A19" s="16">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="50">
+        <v>45790</v>
+      </c>
+      <c r="C19" s="51">
+        <v>2</v>
+      </c>
       <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="56"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="46">
+        <v>45790</v>
+      </c>
       <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="36"/>
+      <c r="D20" s="48">
+        <v>15</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -8722,11 +8754,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8734,7 +8766,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8762,7 +8794,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8770,7 +8802,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8851,7 +8883,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.41666666666666669</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8874,6 +8906,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9096,17 +9139,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9116,6 +9148,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9132,15 +9175,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
+++ b/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt52png\Documents\GitHub\P_Web295\frontend\Journal_de_Travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A68364-BAAC-4262-AF24-FB99768A2699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E11564-6843-44C2-8E41-000D06C3DC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t xml:space="preserve">Création du service de post d'un livre + debug </t>
+  </si>
+  <si>
+    <t>Ajout et debug sur la page de création de livre</t>
+  </si>
+  <si>
+    <t>Création de Services</t>
+  </si>
+  <si>
+    <t>Création de la page de compte</t>
+  </si>
+  <si>
+    <t>Création de la route pour avoir l'id d'un utilisateur grace a son jeton jwt</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1109,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.65625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2028,7 +2040,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2093,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 13 heurs 45 minutes</v>
+        <v>0 jours 17 heurs 30 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2096,15 +2108,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>825</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2509,51 +2521,87 @@
       <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="str">
+      <c r="A21" s="16">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="36"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="50">
+        <v>45797</v>
+      </c>
+      <c r="C21" s="51">
+        <v>1</v>
+      </c>
+      <c r="D21" s="52">
+        <v>30</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="36"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="46">
+        <v>45797</v>
+      </c>
+      <c r="C22" s="47">
+        <v>1</v>
+      </c>
+      <c r="D22" s="48">
+        <v>30</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="str">
+      <c r="A23" s="16">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="50">
+        <v>45797</v>
+      </c>
       <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="36"/>
+      <c r="D23" s="52">
+        <v>15</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="46"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="46">
+        <v>45797</v>
+      </c>
       <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="36"/>
+      <c r="D24" s="48">
+        <v>30</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -8754,11 +8802,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8766,7 +8814,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.5</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8883,7 +8931,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.57291666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8906,17 +8954,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9139,6 +9176,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9148,17 +9196,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9175,4 +9212,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
+++ b/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt52png\Documents\GitHub\P_Web295\frontend\Journal_de_Travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E11564-6843-44C2-8E41-000D06C3DC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82702BC7-1CC2-4B82-8027-798708D44322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>Création de la route pour avoir l'id d'un utilisateur grace a son jeton jwt</t>
+  </si>
+  <si>
+    <t>Création de route dans le backend pour Récupérer les commentaires , pour recuperer des livres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finition de la page de compte </t>
+  </si>
+  <si>
+    <t>Création de Services pour la page de compte</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1118,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65625</c:v>
+                  <c:v>0.78125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2040,7 +2049,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2102,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 17 heurs 30 minutes</v>
+        <v>0 jours 20 heurs 30 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2108,15 +2117,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>1050</v>
+        <v>1230</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2605,39 +2614,65 @@
       <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="str">
+      <c r="A25" s="16">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="36"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="50">
+        <v>45798</v>
+      </c>
+      <c r="C25" s="51">
+        <v>1</v>
+      </c>
+      <c r="D25" s="52">
+        <v>30</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="46"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="46">
+        <v>45798</v>
+      </c>
       <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="36"/>
+      <c r="D26" s="48">
+        <v>45</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="str">
+      <c r="A27" s="16">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="50">
+        <v>45798</v>
+      </c>
       <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="36"/>
+      <c r="D27" s="52">
+        <v>45</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="56"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8802,11 +8837,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>345</v>
+        <v>465</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8814,7 +8849,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.65625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8931,7 +8966,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.72916666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8954,6 +8989,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9176,17 +9222,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9196,6 +9231,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9212,15 +9258,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
+++ b/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt52png\Documents\GitHub\P_Web295\frontend\Journal_de_Travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82702BC7-1CC2-4B82-8027-798708D44322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E2046-B208-465B-9B21-FFB44467C41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>Création de Services pour la page de compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction du backend pour recevoir plus d'information d'un utilisateur </t>
+  </si>
+  <si>
+    <t>Création de la page de detail d'un utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Écriture de ma conclusion dans le rapport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug de la pull request </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand j'ai pull request il y avait quelques erreurs de superposition mais quand j'ai testé la version final alors toute l'application ne fonctionnait pas. Pour finir c'était une erreur qui a été introduite quand j'ai corrigé les erreurs de superposition. </t>
   </si>
 </sst>
 </file>
@@ -1118,13 +1133,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78125</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0416666666666666E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -2048,8 +2063,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2117,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 20 heurs 30 minutes</v>
+        <v>1 jours 0 heurs 15 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2117,15 +2132,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>510</v>
+        <v>615</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>1230</v>
+        <v>1455</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2676,52 +2691,90 @@
       <c r="G27" s="56"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="46">
+        <v>45804</v>
+      </c>
+      <c r="C28" s="47">
+        <v>1</v>
+      </c>
+      <c r="D28" s="48">
+        <v>0</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="str">
+      <c r="A29" s="16">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="50">
+        <v>45804</v>
+      </c>
+      <c r="C29" s="51">
+        <v>1</v>
+      </c>
+      <c r="D29" s="52">
+        <v>30</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="46"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="46">
+        <v>45804</v>
+      </c>
       <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="48">
+        <v>30</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="str">
+    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="50">
+        <v>45804</v>
+      </c>
       <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="56"/>
+      <c r="D31" s="52">
+        <v>45</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
@@ -8837,11 +8890,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8849,7 +8902,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.78125</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8877,7 +8930,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8885,7 +8938,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8966,7 +9019,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.85416666666666663</v>
+        <v>1.0104166666666667</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8989,17 +9042,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9222,6 +9264,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9231,17 +9284,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9258,4 +9300,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
+++ b/frontend/Journal_de_Travail/Journal-de-Travail_FabreAntoine.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt52png\Documents\GitHub\P_Web295\frontend\Journal_de_Travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E2046-B208-465B-9B21-FFB44467C41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFA4F98-A0F9-46C5-A1A2-8B85DA25EA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t xml:space="preserve">Quand j'ai pull request il y avait quelques erreurs de superposition mais quand j'ai testé la version final alors toute l'application ne fonctionnait pas. Pour finir c'était une erreur qui a été introduite quand j'ai corrigé les erreurs de superposition. </t>
+  </si>
+  <si>
+    <t>Onglet Admin sur page d'utilisateur</t>
+  </si>
+  <si>
+    <t>Présentation du site à Monsieur Charmier</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1139,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>1.0104166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1145,7 +1151,7 @@
                   <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.3888888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.1666666666666664E-2</c:v>
@@ -2063,8 +2069,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2123,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>1 jours 0 heurs 15 minutes</v>
+        <v>1 jours 2 heurs 50 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2132,15 +2138,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>1455</v>
+        <v>1610</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2777,27 +2783,45 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="8">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="B32" s="46">
+        <v>45805</v>
+      </c>
+      <c r="C32" s="47">
+        <v>2</v>
+      </c>
+      <c r="D32" s="48">
+        <v>15</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>54</v>
+      </c>
       <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="str">
+      <c r="A33" s="16">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="B33" s="50">
+        <v>45805</v>
+      </c>
       <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="35"/>
+      <c r="D33" s="52">
+        <v>20</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>55</v>
+      </c>
       <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8890,11 +8914,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8902,7 +8926,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.91666666666666663</v>
+        <v>1.0104166666666667</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8966,7 +8990,7 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C9" s="31" t="str">
         <f>'Journal de travail'!M13</f>
@@ -8974,7 +8998,7 @@
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -9019,7 +9043,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>1.0104166666666667</v>
+        <v>1.1180555555555556</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9042,6 +9066,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9264,17 +9299,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9284,6 +9308,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9300,15 +9335,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>